--- a/Ecopulper/my_graphs/impact_2.xlsx
+++ b/Ecopulper/my_graphs/impact_2.xlsx
@@ -534,70 +534,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>65.12463784217834</v>
+        <v>0.6575707560405135</v>
       </c>
       <c r="C2">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D2">
-        <v>3.119232611032203</v>
+        <v>0.03149514546385035</v>
       </c>
       <c r="E2">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F2">
-        <v>0.04706420485308627</v>
+        <v>0.000475212631499744</v>
       </c>
       <c r="G2">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H2">
-        <v>0.3266018168715163</v>
+        <v>0.003297724671028845</v>
       </c>
       <c r="I2">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J2">
-        <v>6.228031936567277</v>
+        <v>0.06288608955219388</v>
       </c>
       <c r="K2">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L2">
-        <v>1.991258184891194</v>
+        <v>0.02010648092254996</v>
       </c>
       <c r="M2">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N2">
-        <v>5.784131276421249</v>
+        <v>0.05840306496247649</v>
       </c>
       <c r="O2">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P2">
-        <v>0.6797538679814515</v>
+        <v>0.6798003976776335</v>
       </c>
       <c r="Q2">
-        <v>1.471120720459493</v>
+        <v>1.471020027961513</v>
       </c>
       <c r="R2">
-        <v>-30.96187023118546</v>
+        <v>-0.3126246751053259</v>
       </c>
       <c r="S2">
-        <v>-0.2595022068962862</v>
+        <v>-0.002620369621581631</v>
       </c>
       <c r="T2">
-        <v>-3.265096676863323</v>
+        <v>-0.03296794294055871</v>
       </c>
       <c r="U2">
-        <v>-27.95444726711139</v>
+        <v>-0.2822802783921361</v>
       </c>
       <c r="V2">
-        <v>-56.39410370215774</v>
+        <v>-0.5694311852566898</v>
       </c>
       <c r="W2">
-        <v>34.24997582752258</v>
+        <v>0.3457831654231995</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -605,70 +605,70 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>65.12463090382516</v>
+        <v>0.6575706861913204</v>
       </c>
       <c r="C3">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D3">
-        <v>3.119232586584985</v>
+        <v>0.03149514521646779</v>
       </c>
       <c r="E3">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F3">
-        <v>0.04706419545254903</v>
+        <v>0.000475212536912295</v>
       </c>
       <c r="G3">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H3">
-        <v>0.3266018168151277</v>
+        <v>0.003297724669209856</v>
       </c>
       <c r="I3">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J3">
-        <v>6.228031791746616</v>
+        <v>0.06288608815521002</v>
       </c>
       <c r="K3">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L3">
-        <v>1.991257757879794</v>
+        <v>0.02010647626593709</v>
       </c>
       <c r="M3">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N3">
-        <v>5.784126318991184</v>
+        <v>0.05840301513671875</v>
       </c>
       <c r="O3">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P3">
-        <v>0.6797537955607431</v>
+        <v>0.6798003254671393</v>
       </c>
       <c r="Q3">
-        <v>1.47112087719213</v>
+        <v>1.471020184217812</v>
       </c>
       <c r="R3">
-        <v>-30.96186998671328</v>
+        <v>-0.3126246726315003</v>
       </c>
       <c r="S3">
-        <v>-0.2595021128909138</v>
+        <v>-0.002620368675707141</v>
       </c>
       <c r="T3">
-        <v>-3.265096676299436</v>
+        <v>-0.03296794292236882</v>
       </c>
       <c r="U3">
-        <v>-27.95439769281074</v>
+        <v>-0.2822797801345587</v>
       </c>
       <c r="V3">
-        <v>-56.39410225395113</v>
+        <v>-0.5694311712868512</v>
       </c>
       <c r="W3">
-        <v>34.24998009763658</v>
+        <v>0.3457832119893283</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -676,70 +676,70 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>65.12462396547198</v>
+        <v>0.6575706154108047</v>
       </c>
       <c r="C4">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D4">
-        <v>3.11923256215232</v>
+        <v>0.03149514496908523</v>
       </c>
       <c r="E4">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F4">
-        <v>0.04706418605201179</v>
+        <v>0.0004752124441438355</v>
       </c>
       <c r="G4">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H4">
-        <v>0.32660181675692</v>
+        <v>0.003297724669209856</v>
       </c>
       <c r="I4">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J4">
-        <v>6.228031646460295</v>
+        <v>0.06288608629256487</v>
       </c>
       <c r="K4">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L4">
-        <v>1.991257330868393</v>
+        <v>0.02010647184215486</v>
       </c>
       <c r="M4">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N4">
-        <v>5.784121361328289</v>
+        <v>0.05840296507813036</v>
       </c>
       <c r="O4">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P4">
-        <v>0.6797537231400346</v>
+        <v>0.6798002522938386</v>
       </c>
       <c r="Q4">
-        <v>1.4711210339248</v>
+        <v>1.471020342557563</v>
       </c>
       <c r="R4">
-        <v>-30.96186974238663</v>
+        <v>-0.3126246701576747</v>
       </c>
       <c r="S4">
-        <v>-0.2595020188855415</v>
+        <v>-0.002620367748022545</v>
       </c>
       <c r="T4">
-        <v>-3.265096675717359</v>
+        <v>-0.03296794292236882</v>
       </c>
       <c r="U4">
-        <v>-27.95434811618179</v>
+        <v>-0.2822792795486748</v>
       </c>
       <c r="V4">
-        <v>-56.39410080108792</v>
+        <v>-0.5694311526603997</v>
       </c>
       <c r="W4">
-        <v>34.24998436775059</v>
+        <v>0.3457832562271506</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -747,70 +747,70 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>65.12461702991277</v>
+        <v>0.6575705446302891</v>
       </c>
       <c r="C5">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D5">
-        <v>3.11923253769055</v>
+        <v>0.03149514473625459</v>
       </c>
       <c r="E5">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F5">
-        <v>0.0470641766441986</v>
+        <v>0.0004752123495563865</v>
       </c>
       <c r="G5">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H5">
-        <v>0.3266018167005313</v>
+        <v>0.003297724669209856</v>
       </c>
       <c r="I5">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J5">
-        <v>6.228031501639634</v>
+        <v>0.06288608489558101</v>
       </c>
       <c r="K5">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L5">
-        <v>1.991256903624162</v>
+        <v>0.02010646765120327</v>
       </c>
       <c r="M5">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N5">
-        <v>5.784116403665394</v>
+        <v>0.05840291455388069</v>
       </c>
       <c r="O5">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P5">
-        <v>0.6797536507484888</v>
+        <v>0.6798001791205378</v>
       </c>
       <c r="Q5">
-        <v>1.47112119059439</v>
+        <v>1.471020500897347</v>
       </c>
       <c r="R5">
-        <v>-30.96186949776893</v>
+        <v>-0.3126246678293683</v>
       </c>
       <c r="S5">
-        <v>-0.2595019248074095</v>
+        <v>-0.002620366802148055</v>
       </c>
       <c r="T5">
-        <v>-3.265096675153472</v>
+        <v>-0.03296794292236882</v>
       </c>
       <c r="U5">
-        <v>-27.95429853955284</v>
+        <v>-0.2822787743061781</v>
       </c>
       <c r="V5">
-        <v>-56.39409935288131</v>
+        <v>-0.5694311386905611</v>
       </c>
       <c r="W5">
-        <v>34.2499886401929</v>
+        <v>0.3457832981366664</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -818,70 +818,70 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>65.12461009155959</v>
+        <v>0.6575704757124186</v>
       </c>
       <c r="C6">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D6">
-        <v>3.119232513228781</v>
+        <v>0.03149514448887203</v>
       </c>
       <c r="E6">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F6">
-        <v>0.04706416724548035</v>
+        <v>0.0004752122513309587</v>
       </c>
       <c r="G6">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H6">
-        <v>0.3266018166405047</v>
+        <v>0.003297724669209856</v>
       </c>
       <c r="I6">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J6">
-        <v>6.228031356353313</v>
+        <v>0.06288608349859715</v>
       </c>
       <c r="K6">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L6">
-        <v>1.991256476845592</v>
+        <v>0.0201064629945904</v>
       </c>
       <c r="M6">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N6">
-        <v>5.784111446235329</v>
+        <v>0.05840286472812295</v>
       </c>
       <c r="O6">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P6">
-        <v>0.6797535783277804</v>
+        <v>0.6798001078728502</v>
       </c>
       <c r="Q6">
-        <v>1.471121347327127</v>
+        <v>1.471020655070328</v>
       </c>
       <c r="R6">
-        <v>-30.96186925315124</v>
+        <v>-0.3126246653555427</v>
       </c>
       <c r="S6">
-        <v>-0.259501830820227</v>
+        <v>-0.002620365819893777</v>
       </c>
       <c r="T6">
-        <v>-3.265096674553206</v>
+        <v>-0.03296794292236882</v>
       </c>
       <c r="U6">
-        <v>-27.95424896525219</v>
+        <v>-0.2822782760486007</v>
       </c>
       <c r="V6">
-        <v>-56.3940979000181</v>
+        <v>-0.5694311247207224</v>
       </c>
       <c r="W6">
-        <v>34.24999290797859</v>
+        <v>0.3457833447027951</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -889,70 +889,70 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>65.12460315413773</v>
+        <v>0.6575704049319029</v>
       </c>
       <c r="C7">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D7">
-        <v>3.119232488781563</v>
+        <v>0.03149514424148947</v>
       </c>
       <c r="E7">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F7">
-        <v>0.04706415783948614</v>
+        <v>0.0004752121567435097</v>
       </c>
       <c r="G7">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H7">
-        <v>0.326601816584116</v>
+        <v>0.003297724667390867</v>
       </c>
       <c r="I7">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J7">
-        <v>6.228031211066991</v>
+        <v>0.06288608210161328</v>
       </c>
       <c r="K7">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L7">
-        <v>1.991256049368531</v>
+        <v>0.02010645903646946</v>
       </c>
       <c r="M7">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N7">
-        <v>5.784106488339603</v>
+        <v>0.05840281443670392</v>
       </c>
       <c r="O7">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P7">
-        <v>0.6797535059167927</v>
+        <v>0.6798000346995494</v>
       </c>
       <c r="Q7">
-        <v>1.47112150403886</v>
+        <v>1.47102081341018</v>
       </c>
       <c r="R7">
-        <v>-30.96186900867906</v>
+        <v>-0.3126246628817171</v>
       </c>
       <c r="S7">
-        <v>-0.259501736760285</v>
+        <v>-0.002620364874019288</v>
       </c>
       <c r="T7">
-        <v>-3.265096673989319</v>
+        <v>-0.03296794290417893</v>
       </c>
       <c r="U7">
-        <v>-27.95419938629493</v>
+        <v>-0.2822777731344104</v>
       </c>
       <c r="V7">
-        <v>-56.39409644715488</v>
+        <v>-0.5694311107508838</v>
       </c>
       <c r="W7">
-        <v>34.24999718274921</v>
+        <v>0.3457833842840046</v>
       </c>
     </row>
   </sheetData>
